--- a/10월/10월의 Miracle.xlsx
+++ b/10월/10월의 Miracle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\9월\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Souvenir\Desktop\git\miracle-morning\10월\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,44 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>결산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월의 Miracle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문소민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>심재욱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>이은별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조혜윤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>하태린</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문소민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조혜윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월의 Miracle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -140,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -267,6 +277,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -276,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +338,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,538 +627,368 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>44474</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>44441</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>44442</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44475</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <v>44445</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44476</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <v>44446</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44477</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <v>44447</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44481</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <v>44448</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44482</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>44449</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44483</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>44452</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>44484</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>44453</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44487</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <v>44454</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44488</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>44455</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44489</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>44456</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>44490</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <v>44462</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>44491</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <v>44463</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>44494</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>44466</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>44495</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>44467</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>44496</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>44468</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>44497</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>44469</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44498</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" s="8">
         <f>COUNTIF(B3:B21, "O") / COUNTA(B3:B21)</f>
-        <v>0.94736842105263153</v>
+        <v>1</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" ref="C22:G22" si="0">COUNTIF(C3:C21, "O") / COUNTA(C3:C21)</f>
-        <v>0.36842105263157893</v>
+        <f>COUNTIF(C3:C21, "O") / COUNTA(C3:C21)</f>
+        <v>1</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.57894736842105265</v>
+        <f t="shared" ref="D22:H22" si="0">COUNTIF(D3:D21, "O") / COUNTA(D3:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="e">
+        <f>COUNTIF(E5:E21, "O") / COUNTA(E5:E21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>0.63157894736842102</v>
+        <v>0.5</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0.89473684210526316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1142,10 +996,11 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/10월/10월의 Miracle.xlsx
+++ b/10월/10월의 Miracle.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="14">
   <si>
     <t>김수빈</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -81,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +137,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -297,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,14 +349,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,32 +645,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -676,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>44470</v>
       </c>
@@ -702,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>44474</v>
       </c>
@@ -728,244 +746,483 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>44475</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>44476</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>44477</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>44481</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>44482</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>44483</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>44484</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>44487</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>44488</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>44489</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>44490</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>44491</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>44494</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>44495</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>44496</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>44497</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>44498</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="8">
-        <f>COUNTIF(B3:B21, "O") / COUNTA(B3:B21)</f>
-        <v>1</v>
+        <f>(COUNTIF(B3:B21, "O") + COUNTIF(B3:B21, "백신")) / (COUNTA(B3:B21))</f>
+        <v>0.89473684210526316</v>
       </c>
       <c r="C22" s="8">
-        <f>COUNTIF(C3:C21, "O") / COUNTA(C3:C21)</f>
-        <v>1</v>
+        <f>(COUNTIF(C3:C21, "O") + COUNTIF(C3:C21, "백신")) / (COUNTA(C3:C21))</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" ref="D22:H22" si="0">COUNTIF(D3:D21, "O") / COUNTA(D3:D21)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="8" t="e">
-        <f>COUNTIF(E5:E21, "O") / COUNTA(E5:E21)</f>
-        <v>#DIV/0!</v>
+        <f>(COUNTIF(D3:D21, "O") + COUNTIF(D3:D21, "백신")) / (COUNTA(D3:D21))</f>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="E22" s="8">
+        <f>(COUNTIF(E5:E21, "O") + COUNTIF(E5:E21, "백신")) / (COUNTA(E5:E21))</f>
+        <v>0.58823529411764708</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f t="shared" ref="E22:G22" si="0">(COUNTIF(F3:F21, "O") + COUNTIF(F3:F21, "백신")) / (COUNTA(F3:F21))</f>
+        <v>0.73684210526315785</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>COUNTIF(H3:H8, "O") / COUNTA(H3:H8)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -973,17 +1230,14 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
